--- a/biology/Botanique/Quercus_parvula/Quercus_parvula.xlsx
+++ b/biology/Botanique/Quercus_parvula/Quercus_parvula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus parvula est une espèce de chêne à feuillage persistant de la famille des fagacées . Il est classé dans la section des chênes rouges d'Amérique du Nord, d'Amérique centrale et d'Amérique du Sud, les glands mûrissent en 18 mois et ont un goût très amer. Les feuilles ont généralement des lobes avec des pointes acérées, des poils ou des épines sur le lobe.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Q. Parvula diffère morphologiquement de son parent proche Q. wislizeni des suivantes façons[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Q. Parvula diffère morphologiquement de son parent proche Q. wislizeni des suivantes façons :
 Les limbes des feuilles sont plus grands, 4 cm de large au lieu de 4cm
 Les limbes des feuilles sont plus minces, généralement inférieur à 0,26 mm près de l'apex
 Les branches de l'année en cours sont à 5 pans
@@ -547,9 +561,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante endémique des États-Unis, son aire de répartition se situe des versants orientés au nord de l'Île Sainte Cruz et des chaines côtières californiennes depuis le nord du comté de Sainte Barbara jusqu'au comté de Mendocino[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante endémique des États-Unis, son aire de répartition se situe des versants orientés au nord de l'Île Sainte Cruz et des chaines côtières californiennes depuis le nord du comté de Sainte Barbara jusqu'au comté de Mendocino.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Q. parvula se trouve avec ou près de Sequoia sempervirens, et souvent près de Quercus agrifolia var. agrifolia et Notholithocarpus densiflorus.
-Q. Parvula  diffère d'un point de vue de l'habitat de Q. wislizeni des suivantes façons[1]  :
+Q. Parvula  diffère d'un point de vue de l'habitat de Q. wislizeni des suivantes façons  :
 Habitat insulaire ou côtier au lieu des contreforts de la Sierra
 Associé à Sequoia sempervirens au lieu de Pinus sabiniana</t>
         </is>
@@ -611,9 +629,11 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus parvula est théoriquement capable de s'hybrider avec tous les autres chênes rouges de Californie, à l'exception de Quercus agrifolia var. oxyadenia[3],[4] car ils sont séparés par les Transverse Ranges.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus parvula est théoriquement capable de s'hybrider avec tous les autres chênes rouges de Californie, à l'exception de Quercus agrifolia var. oxyadenia, car ils sont séparés par les Transverse Ranges.
 </t>
         </is>
       </c>
@@ -642,12 +662,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus parvula a été décrite par Edward Lee Greene en 1887[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus parvula a été décrite par Edward Lee Greene en 1887.
 Etymologie :
 Quercus: nom générique du chêne en latin
-parvula: épithète qui signifie "très petite"[6].
+parvula: épithète qui signifie "très petite".
 </t>
         </is>
       </c>
